--- a/Objetos de imputación.xlsx
+++ b/Objetos de imputación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sterlingresourcesltd-my.sharepoint.com/personal/fcuesta_petrotal-corp_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E83D0083-BB66-4A5A-A3EE-6BD7153D3C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E83D0083-BB66-4A5A-A3EE-6BD7153D3C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9AA18BD-AAAE-4701-87D8-C877B2FB5C4A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A23B7CF-DFE9-441D-BE93-1493C899658B}"/>
+    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{5A23B7CF-DFE9-441D-BE93-1493C899658B}"/>
   </bookViews>
   <sheets>
     <sheet name="Obejtos de imputación" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="223">
   <si>
     <t>PROYECTO</t>
   </si>
@@ -329,9 +329,6 @@
     <t>500019</t>
   </si>
   <si>
-    <t>SUPPORT AND ACCOMPANIMENT  MDP PROJECTS.</t>
-  </si>
-  <si>
     <t>500020</t>
   </si>
   <si>
@@ -690,6 +687,24 @@
   </si>
   <si>
     <t>DESCRPCIÓN IMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>600014</t>
+  </si>
+  <si>
+    <t>600024</t>
+  </si>
+  <si>
+    <t>600031</t>
+  </si>
+  <si>
+    <t>600033</t>
+  </si>
+  <si>
+    <t>600039</t>
+  </si>
+  <si>
+    <t>SUPPORT AND ACCOMPANIMENT MDP PROJECTS.</t>
   </si>
 </sst>
 </file>
@@ -1122,9 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F9B28C-880F-4066-AB1B-D2F67462A66F}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E105" sqref="A1:E105"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1137,16 +1150,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1154,7 +1167,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1171,7 +1184,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1188,7 +1201,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1205,7 +1218,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1222,13 +1235,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>600014</v>
+      <c r="C6" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1239,7 +1252,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -1256,7 +1269,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -1273,7 +1286,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -1290,7 +1303,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -1307,7 +1320,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1324,7 +1337,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1341,7 +1354,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -1358,13 +1371,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
-        <v>600024</v>
+      <c r="C14" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
@@ -1375,7 +1388,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -1392,7 +1405,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -1409,7 +1422,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1</v>
@@ -1426,7 +1439,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1</v>
@@ -1443,7 +1456,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1</v>
@@ -1460,7 +1473,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -1477,13 +1490,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6">
-        <v>600031</v>
+      <c r="C21" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>39</v>
@@ -1494,7 +1507,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
@@ -1511,13 +1524,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="6">
-        <v>600033</v>
+      <c r="C23" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>42</v>
@@ -1528,7 +1541,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
@@ -1545,7 +1558,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1</v>
@@ -1562,7 +1575,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1</v>
@@ -1579,13 +1592,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
-        <v>600039</v>
+      <c r="C27" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>49</v>
@@ -1596,7 +1609,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1</v>
@@ -1613,7 +1626,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1</v>
@@ -1630,7 +1643,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1</v>
@@ -1647,7 +1660,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1</v>
@@ -1664,7 +1677,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
@@ -1681,7 +1694,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -1698,7 +1711,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
@@ -1715,7 +1728,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1</v>
@@ -1732,7 +1745,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1</v>
@@ -1749,7 +1762,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
@@ -1766,7 +1779,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
@@ -1783,7 +1796,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1</v>
@@ -1800,7 +1813,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
@@ -1817,7 +1830,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1</v>
@@ -1834,7 +1847,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1</v>
@@ -1851,7 +1864,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
@@ -1868,7 +1881,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -1885,7 +1898,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1</v>
@@ -1902,7 +1915,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1</v>
@@ -1919,7 +1932,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1</v>
@@ -1936,7 +1949,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>1</v>
@@ -1953,7 +1966,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1</v>
@@ -1970,7 +1983,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1</v>
@@ -1987,7 +2000,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -1996,7 +2009,7 @@
         <v>96</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>4</v>
@@ -2004,16 +2017,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>4</v>
@@ -2021,16 +2034,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>4</v>
@@ -2038,16 +2051,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>4</v>
@@ -2055,16 +2068,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>4</v>
@@ -2072,16 +2085,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>4</v>
@@ -2089,16 +2102,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>4</v>
@@ -2106,16 +2119,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>4</v>
@@ -2123,16 +2136,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>4</v>
@@ -2140,16 +2153,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>4</v>
@@ -2157,16 +2170,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>4</v>
@@ -2174,16 +2187,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>4</v>
@@ -2191,16 +2204,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>4</v>
@@ -2208,16 +2221,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>4</v>
@@ -2225,16 +2238,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>4</v>
@@ -2242,16 +2255,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>4</v>
@@ -2259,16 +2272,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>4</v>
@@ -2276,16 +2289,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>4</v>
@@ -2293,16 +2306,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>4</v>
@@ -2310,614 +2323,614 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E76" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C89" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
